--- a/webscraping/email-and-phone-scraper-master/calif.xlsx
+++ b/webscraping/email-and-phone-scraper-master/calif.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naman/Desktop/WebScrapeWebsitesEmails/final_locations_to_scrap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naman/Desktop/WebScrapeWebsitesEmails/webscraping/email-and-phone-scraper-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC5DC42-28F2-1940-8851-C843F678CE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F08E1-35C4-B047-806E-A2FA245039B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45860" yWindow="500" windowWidth="22940" windowHeight="26580" xr2:uid="{0514E389-1DA6-1F4B-8C67-456A8DE4357C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="26580" activeTab="1" xr2:uid="{0514E389-1DA6-1F4B-8C67-456A8DE4357C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="166">
   <si>
     <t>Cali Resources, Inc</t>
   </si>
@@ -44,18 +45,12 @@
     <t>2310 Michael Faraday Drive</t>
   </si>
   <si>
-    <t>caliresources.com</t>
-  </si>
-  <si>
     <t>AERC Recycling Solutions, A Clean Earth Company</t>
   </si>
   <si>
     <t>1733 Morgan Road</t>
   </si>
   <si>
-    <t>cleanearthinc.com</t>
-  </si>
-  <si>
     <t>Green E-Tech Systems dba Semsotai Upcycle</t>
   </si>
   <si>
@@ -143,171 +138,102 @@
     <t>7650 Newcastle Road, Shop 19/20</t>
   </si>
   <si>
-    <t>meritepartners.org</t>
-  </si>
-  <si>
     <t>Panasystem Corporation</t>
   </si>
   <si>
     <t>21540 Prairie St Unit A</t>
   </si>
   <si>
-    <t>panasystem.com</t>
-  </si>
-  <si>
-    <t>18305 Sutter Blvd.</t>
-  </si>
-  <si>
-    <t>prismelectronics.net</t>
-  </si>
-  <si>
-    <t>1784 Pan American St. Suite 101</t>
-  </si>
-  <si>
-    <t>Reconext.com</t>
-  </si>
-  <si>
     <t>Techwaste Recycling LLC</t>
   </si>
   <si>
     <t>1940 East Occidental street</t>
   </si>
   <si>
-    <t>techwasterecycling.com</t>
-  </si>
-  <si>
     <t>Transpere, LLC</t>
   </si>
   <si>
     <t>1670 Brandywine Ave., Suite A</t>
   </si>
   <si>
-    <t>transpere.com</t>
-  </si>
-  <si>
     <t>UNICOR- Fed. Prison Ind. FCI Terminal Island</t>
   </si>
   <si>
     <t>1299 S. Seaside Avenue</t>
   </si>
   <si>
-    <t>unicor.gov</t>
-  </si>
-  <si>
-    <t>8120 Berry Avenue, Suite D</t>
-  </si>
-  <si>
-    <t>wisetek.net</t>
-  </si>
-  <si>
     <t>A Biomedical Service, Inc.</t>
   </si>
   <si>
     <t>2214 N Pleasant Ave</t>
   </si>
   <si>
-    <t>www.abiomedical.com</t>
-  </si>
-  <si>
     <t>Arrow Recovery Group, Inc</t>
   </si>
   <si>
     <t>46025 Warm Springs Boulevard</t>
   </si>
   <si>
-    <t>www.arrowrecovery.com</t>
-  </si>
-  <si>
     <t>Electrorecycle, Inc. dba Avritek</t>
   </si>
   <si>
     <t>650 Gateway Center Way, Suite I</t>
   </si>
   <si>
-    <t>www.avritek.com</t>
-  </si>
-  <si>
     <t>BayTech Recovery, Inc.</t>
   </si>
   <si>
     <t>1273 Industrial Parkway West, Suite 240</t>
   </si>
   <si>
-    <t>www.baytechrecovery.com</t>
-  </si>
-  <si>
     <t>Beacon Management, Inc.</t>
   </si>
   <si>
     <t>6025 Scott Way</t>
   </si>
   <si>
-    <t>www.bmionline.us</t>
-  </si>
-  <si>
     <t>CALPIA E-Waste Recycling &amp; Computer Refurbishing Program</t>
   </si>
   <si>
     <t>8681 Younger Creek Drive</t>
   </si>
   <si>
-    <t>www.calpia.ca.gov</t>
-  </si>
-  <si>
     <t>Cellpoint Corporation</t>
   </si>
   <si>
     <t>1778 Zinetta Rd, Suite A</t>
   </si>
   <si>
-    <t>www.cellpointcorp.com</t>
-  </si>
-  <si>
     <t>Centex Trading Group Inc.</t>
   </si>
   <si>
     <t>9365 Waples Street #D</t>
   </si>
   <si>
-    <t>www.centextradinggroup.com</t>
-  </si>
-  <si>
     <t>Curvature</t>
   </si>
   <si>
     <t>80 Coromar Dr</t>
   </si>
   <si>
-    <t>www.curvature.com</t>
-  </si>
-  <si>
     <t>DATA IT LLC</t>
   </si>
   <si>
     <t>313 North Garfield Ave</t>
   </si>
   <si>
-    <t>www.datait.com</t>
-  </si>
-  <si>
     <t>Digital Green Global, Inc. (DG Global)</t>
   </si>
   <si>
     <t>875 Jarvis Drive, Suite 110, 120 &amp; 130</t>
   </si>
   <si>
-    <t>www.dgglobal.net</t>
-  </si>
-  <si>
     <t>Electronic Recyclers International, Inc. - Headquarters</t>
   </si>
   <si>
     <t>7815 N. Palm Ave. Suite 140</t>
   </si>
   <si>
-    <t>www.electronicrecyclers.com</t>
-  </si>
-  <si>
     <t>ERI-Fresno</t>
   </si>
   <si>
@@ -320,144 +246,84 @@
     <t>37390 Centralmont Place</t>
   </si>
   <si>
-    <t>www.evergreenitmanagement.com</t>
-  </si>
-  <si>
     <t>Greenland Resource Inc.</t>
   </si>
   <si>
     <t>15044 La Palma</t>
   </si>
   <si>
-    <t>www.greenlandresource.com</t>
-  </si>
-  <si>
     <t>Gold'n West Surplus, Inc.</t>
   </si>
   <si>
     <t>1691 N. Delilah St.</t>
   </si>
   <si>
-    <t>www.gwsrecycling.com</t>
-  </si>
-  <si>
-    <t>6433 Canning Street</t>
-  </si>
-  <si>
-    <t>www.homeboyrecycling.com</t>
-  </si>
-  <si>
     <t>Iron Systems Inc DBA Iron Global</t>
   </si>
   <si>
     <t>980 Mission Court</t>
   </si>
   <si>
-    <t>www.ironsystems.com</t>
-  </si>
-  <si>
     <t>ITEC, Inc</t>
   </si>
   <si>
     <t>2841 S. Croddy Way</t>
   </si>
   <si>
-    <t>www.itec.net</t>
-  </si>
-  <si>
-    <t>7575 Gateway Blvd, Suite 100</t>
-  </si>
-  <si>
-    <t>www.itrenew.com</t>
-  </si>
-  <si>
     <t>Kawabata American, Inc.</t>
   </si>
   <si>
     <t>1950 S Santa Fe Ave</t>
   </si>
   <si>
-    <t>www.kbtmetal.com</t>
-  </si>
-  <si>
     <t>KT CORP</t>
   </si>
   <si>
     <t>1320 S Johnson Dr</t>
   </si>
   <si>
-    <t>www.ktcorpworldwide.com</t>
-  </si>
-  <si>
     <t>Magnakom LLC</t>
   </si>
   <si>
     <t>6914 Canby Ave #106</t>
   </si>
   <si>
-    <t>www.magnakom.com</t>
-  </si>
-  <si>
     <t>Maywei Inc.</t>
   </si>
   <si>
     <t>1210 E. 223rd St. Suite 305</t>
   </si>
   <si>
-    <t>www.maywei.com</t>
-  </si>
-  <si>
     <t>Modern Waste Solutions</t>
   </si>
   <si>
     <t>4391 Pell Dr Suite G</t>
   </si>
   <si>
-    <t>www.modernwastesolutions.com</t>
-  </si>
-  <si>
     <t>Onsite Electronics Recycling</t>
   </si>
   <si>
     <t>2331 Teepee Drive</t>
   </si>
   <si>
-    <t>www.onsiteelectronicsrecycling.com</t>
-  </si>
-  <si>
     <t>FC Management Services dba PC Recycle</t>
   </si>
   <si>
     <t>2001 Anchor Ct Ste B</t>
   </si>
   <si>
-    <t>www.pcrecycle.us</t>
-  </si>
-  <si>
-    <t>14950 Lakewood Blvd Ste B</t>
-  </si>
-  <si>
-    <t>www.pncalifornia.com</t>
-  </si>
-  <si>
     <t>PowerON Services, Inc dBA Reuse Inc</t>
   </si>
   <si>
     <t>8801 Washington Blvd. Suite 101</t>
   </si>
   <si>
-    <t>www.poweron.com</t>
-  </si>
-  <si>
     <t>BCS Recycling Specialists</t>
   </si>
   <si>
     <t>7800 Woodley Ave. Unit B</t>
   </si>
   <si>
-    <t>www.scrapdr.com</t>
-  </si>
-  <si>
     <t>8735 and 8745 Remmet Avenue</t>
   </si>
   <si>
@@ -473,90 +339,60 @@
     <t>5220 Edison Ave</t>
   </si>
   <si>
-    <t>www.sem-recycling.com</t>
-  </si>
-  <si>
     <t>Sims Recycling Solutions, Inc., DBA Sims Lifecycle Services</t>
   </si>
   <si>
     <t>8855 Washington Boulevard</t>
   </si>
   <si>
-    <t>www.simsrecycling.com</t>
-  </si>
-  <si>
     <t>SmartWaste Inc.</t>
   </si>
   <si>
     <t>2301 Trade Zone Blvd</t>
   </si>
   <si>
-    <t>www.smartwasteusa.com</t>
-  </si>
-  <si>
     <t>Star Micro Inc</t>
   </si>
   <si>
     <t>817 Corporate Way</t>
   </si>
   <si>
-    <t>www.starmicro.net</t>
-  </si>
-  <si>
     <t>Surplus Service</t>
   </si>
   <si>
     <t>3090 Osgood Court</t>
   </si>
   <si>
-    <t>www.SurplusService.com</t>
-  </si>
-  <si>
     <t>T3, LLC dba T3 Recycling Solutions (T3RS), Surplus Toner Buyer (STB)</t>
   </si>
   <si>
     <t>2583 Mercantile Drive</t>
   </si>
   <si>
-    <t>www.t3rs.com</t>
-  </si>
-  <si>
     <t>UNICOR Federal Prison Industries, Inc. - USP Atwater</t>
   </si>
   <si>
     <t>1 Federal Way</t>
   </si>
   <si>
-    <t>www.unicor.gov</t>
-  </si>
-  <si>
     <t>WSA Distributing</t>
   </si>
   <si>
     <t>7222 Opportunity Rd</t>
   </si>
   <si>
-    <t>www.wsadistributing.com</t>
-  </si>
-  <si>
     <t>YourCellParts.com</t>
   </si>
   <si>
     <t>7314 Laurel Canyon Blvd</t>
   </si>
   <si>
-    <t>www.YourCellParts.com</t>
-  </si>
-  <si>
     <t>Zarc Recycling, LLC</t>
   </si>
   <si>
     <t>2422 South California Street</t>
   </si>
   <si>
-    <t>www.zarcrecycling.com</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -570,6 +406,135 @@
   </si>
   <si>
     <t>Phone No</t>
+  </si>
+  <si>
+    <t>https://caliresources.com/</t>
+  </si>
+  <si>
+    <t>https://www.cleanearthinc.com/</t>
+  </si>
+  <si>
+    <t>https://panasystem.com/</t>
+  </si>
+  <si>
+    <t>https://www.techwasterecycling.com/</t>
+  </si>
+  <si>
+    <t>https://www.transpere.com/</t>
+  </si>
+  <si>
+    <t>https://unicor.gov/</t>
+  </si>
+  <si>
+    <t>https://www.abiomedical.com</t>
+  </si>
+  <si>
+    <t>https://www.arrowrecovery.com</t>
+  </si>
+  <si>
+    <t>https://www.avritek.com</t>
+  </si>
+  <si>
+    <t>https://www.baytechrecovery.com</t>
+  </si>
+  <si>
+    <t>https://www.zarcrecycling.com</t>
+  </si>
+  <si>
+    <t>https://www.YourCellParts.com</t>
+  </si>
+  <si>
+    <t>https://www.wsadistributing.com</t>
+  </si>
+  <si>
+    <t>https://www.unicor.gov</t>
+  </si>
+  <si>
+    <t>https://www.t3rs.com</t>
+  </si>
+  <si>
+    <t>https://www.SurplusService.com</t>
+  </si>
+  <si>
+    <t>https://www.starmicro.net</t>
+  </si>
+  <si>
+    <t>https://www.smartwasteusa.com</t>
+  </si>
+  <si>
+    <t>https://www.simsrecycling.com</t>
+  </si>
+  <si>
+    <t>https://www.sem-recycling.com</t>
+  </si>
+  <si>
+    <t>https://www.scrapdr.com</t>
+  </si>
+  <si>
+    <t>https://www.poweron.com</t>
+  </si>
+  <si>
+    <t>https://www.pcrecycle.us</t>
+  </si>
+  <si>
+    <t>https://www.onsiteelectronicsrecycling.com</t>
+  </si>
+  <si>
+    <t>https://www.modernwastesolutions.com</t>
+  </si>
+  <si>
+    <t>https://www.maywei.com</t>
+  </si>
+  <si>
+    <t>https://www.magnakom.com</t>
+  </si>
+  <si>
+    <t>https://www.ktcorpworldwide.com</t>
+  </si>
+  <si>
+    <t>https://www.kbtmetal.com</t>
+  </si>
+  <si>
+    <t>https://www.itec.net</t>
+  </si>
+  <si>
+    <t>https://www.ironsystems.com</t>
+  </si>
+  <si>
+    <t>https://www.gwsrecycling.com</t>
+  </si>
+  <si>
+    <t>https://www.greenlandresource.com</t>
+  </si>
+  <si>
+    <t>https://www.evergreenitmanagement.com</t>
+  </si>
+  <si>
+    <t>https://www.electronicrecyclers.com</t>
+  </si>
+  <si>
+    <t>https://www.dgglobal.net</t>
+  </si>
+  <si>
+    <t>https://www.datait.com</t>
+  </si>
+  <si>
+    <t>https://www.curvature.com</t>
+  </si>
+  <si>
+    <t>https://www.centextradinggroup.com</t>
+  </si>
+  <si>
+    <t>https://www.cellpointcorp.com</t>
+  </si>
+  <si>
+    <t>https://www.calpia.ca.gov</t>
+  </si>
+  <si>
+    <t>https://www.bmionline.us</t>
+  </si>
+  <si>
+    <t>https://meritepartners.org</t>
   </si>
 </sst>
 </file>
@@ -958,32 +923,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A11FF8-C304-6F41-B7E6-73282D99A852}">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.83203125" customWidth="1"/>
     <col min="2" max="2" width="64.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -994,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1019,13 +984,13 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1051,13 +1016,13 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1082,13 +1047,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1113,13 +1078,13 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1144,13 +1109,13 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1175,13 +1140,13 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1207,13 +1172,13 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1239,13 +1204,13 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1270,13 +1235,13 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1301,13 +1266,13 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1332,13 +1297,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1363,13 +1328,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1394,12 +1359,14 @@
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1423,12 +1390,14 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1453,13 +1422,13 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1484,13 +1453,13 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1515,13 +1484,13 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1545,12 +1514,14 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1575,13 +1546,13 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1606,13 +1577,13 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1637,13 +1608,13 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1669,13 +1640,13 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1700,13 +1671,13 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1731,13 +1702,13 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1762,13 +1733,13 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1793,13 +1764,13 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1824,13 +1795,13 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1855,13 +1826,13 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1887,13 +1858,13 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1919,13 +1890,13 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1950,13 +1921,13 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1982,13 +1953,13 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2014,13 +1985,13 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2045,13 +2016,13 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2076,12 +2047,14 @@
       <c r="X36" s="4"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2107,13 +2080,13 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2138,13 +2111,13 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2168,12 +2141,14 @@
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2198,13 +2173,13 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2229,13 +2204,13 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2261,13 +2236,13 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2292,13 +2267,13 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2323,13 +2298,13 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2355,13 +2330,13 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2386,13 +2361,13 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2417,12 +2392,14 @@
       <c r="X47" s="4"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2448,13 +2425,13 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2478,10 +2455,10 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>139</v>
@@ -2509,13 +2486,13 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2540,13 +2517,13 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2571,13 +2548,13 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2602,13 +2579,13 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2633,14 +2610,14 @@
       <c r="X54" s="4"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>149</v>
+      <c r="A55" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2665,13 +2642,13 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2695,15 +2672,6 @@
       <c r="W56" s="4"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2727,15 +2695,6 @@
       <c r="X57" s="4"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2759,15 +2718,6 @@
       <c r="X58" s="4"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2790,15 +2740,6 @@
       <c r="W59" s="4"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2822,15 +2763,6 @@
       <c r="X60" s="4"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2853,15 +2785,6 @@
       <c r="W61" s="4"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2885,69 +2808,190 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A61" r:id="rId1" display="http://yourcellparts.com/" xr:uid="{9F849BF3-DE05-CC4E-81B1-1B21FC4E46C4}"/>
-    <hyperlink ref="C2" r:id="rId2" display="http://caliresources.com/" xr:uid="{9C4FA52C-4216-CD45-959F-43A799F2BEB9}"/>
-    <hyperlink ref="C3" r:id="rId3" display="http://cleanearthinc.com/" xr:uid="{031555A2-FC5C-1B48-8DF4-E48443670852}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{75A75059-497A-F143-AAFF-A093508E99D6}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{65B98482-9D82-804F-B5BF-022016D45F1D}"/>
-    <hyperlink ref="C6" r:id="rId6" display="http://www.alphasurplus.com/" xr:uid="{B0B2F90D-A467-8B49-BF7A-7DB723620AB6}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{29D66610-4B5B-9243-9C16-00307A6086C9}"/>
-    <hyperlink ref="C8" r:id="rId8" display="http://www.itadsolutions.com/" xr:uid="{C54DDF6E-4429-5646-8904-2380551E8415}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{86A7BA80-3A07-804B-BF02-7BBAABEFE6DB}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{7FF75020-3997-A14E-BA5B-4C58FA7476DF}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{A32E9E4B-38F5-0E44-9203-D683A18E907B}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{50DF8976-0DD0-3545-BBF5-4565C64C5A50}"/>
-    <hyperlink ref="C13" r:id="rId13" display="http://meritepartners.org/" xr:uid="{FC21AB7A-C6D3-FB41-9D01-1700F2C45E63}"/>
-    <hyperlink ref="C14" r:id="rId14" display="http://panasystem.com/" xr:uid="{823A19E1-7517-1246-9F16-225E584EFB71}"/>
-    <hyperlink ref="C15" r:id="rId15" display="http://prismelectronics.net/" xr:uid="{F56EBC85-27BD-6C4A-86AC-F58611DD4E40}"/>
-    <hyperlink ref="C16" r:id="rId16" display="http://reconext.com/" xr:uid="{1DDB4723-5E80-5D4D-9743-2288875C7EBF}"/>
-    <hyperlink ref="C17" r:id="rId17" display="http://techwasterecycling.com/" xr:uid="{D29E77F1-4EE8-0D46-9121-EF1F33C469F0}"/>
-    <hyperlink ref="C18" r:id="rId18" display="http://transpere.com/" xr:uid="{6CB40D96-584E-BD45-9AB5-F2E22D379001}"/>
-    <hyperlink ref="C19" r:id="rId19" display="http://unicor.gov/" xr:uid="{072A756C-BE8D-2A4F-9309-01FC5013ACBF}"/>
-    <hyperlink ref="C20" r:id="rId20" display="http://wisetek.net/" xr:uid="{9E48D2D6-0671-164B-BD21-34CE4B05C56D}"/>
-    <hyperlink ref="C21" r:id="rId21" display="http://www.abiomedical.com/" xr:uid="{1088DF8D-7ADC-C540-8B65-24851D66B29B}"/>
-    <hyperlink ref="C22" r:id="rId22" display="http://www.arrowrecovery.com/" xr:uid="{B93E71B8-3F60-0C4F-8234-EE3F13E57BB8}"/>
-    <hyperlink ref="C23" r:id="rId23" display="http://www.avritek.com/" xr:uid="{CBE6D8F4-BABE-C943-BF12-282FE678F355}"/>
-    <hyperlink ref="C24" r:id="rId24" display="http://www.baytechrecovery.com/" xr:uid="{11D8A1BB-0931-5344-BB48-8B2010251A4C}"/>
-    <hyperlink ref="C25" r:id="rId25" display="http://www.bmionline.us/" xr:uid="{5546CC67-2D02-0D4D-A980-F8718694655C}"/>
-    <hyperlink ref="C26" r:id="rId26" display="http://www.calpia.ca.gov/" xr:uid="{5FF47BDB-3338-C447-8BC5-0C48A90A028B}"/>
-    <hyperlink ref="C27" r:id="rId27" display="http://www.cellpointcorp.com/" xr:uid="{84DF1A16-026B-054C-B73D-A3D40A8C546B}"/>
-    <hyperlink ref="C28" r:id="rId28" display="http://www.centextradinggroup.com/" xr:uid="{365CBD0B-6E0E-D440-9373-4C4616A45AA0}"/>
-    <hyperlink ref="C29" r:id="rId29" display="http://www.curvature.com/" xr:uid="{B89E660D-3D02-F34C-9658-C8AA2D951FFF}"/>
-    <hyperlink ref="C30" r:id="rId30" display="http://www.datait.com/" xr:uid="{ACB6087F-2256-0045-A58F-B7D8C3B8F6F6}"/>
-    <hyperlink ref="C31" r:id="rId31" display="http://www.dgglobal.net/" xr:uid="{D8FB5B37-1F91-8D46-AF55-70ABFFA3C7DB}"/>
-    <hyperlink ref="C32" r:id="rId32" display="http://www.electronicrecyclers.com/" xr:uid="{234D0216-AF82-D947-BAE6-8A8C3764BAA8}"/>
-    <hyperlink ref="C33" r:id="rId33" display="http://www.electronicrecyclers.com/" xr:uid="{FA46D9E1-E2B2-5A41-8D2E-9B270E5CD8F6}"/>
-    <hyperlink ref="C34" r:id="rId34" display="http://www.evergreenitmanagement.com/" xr:uid="{3D4B0AA1-14E4-9045-ACC9-35A92615F147}"/>
-    <hyperlink ref="C35" r:id="rId35" display="http://www.greenlandresource.com/" xr:uid="{4993D37E-8071-044E-B480-1CA3F8837549}"/>
-    <hyperlink ref="C36" r:id="rId36" display="http://www.gwsrecycling.com/" xr:uid="{C1157F5A-F9B6-D340-B0A4-A650F0516AAB}"/>
-    <hyperlink ref="C37" r:id="rId37" display="http://www.homeboyrecycling.com/" xr:uid="{E59480B7-CABD-644B-AF45-15B9EE8A9B4F}"/>
-    <hyperlink ref="C38" r:id="rId38" display="http://www.ironsystems.com/" xr:uid="{58D81105-DE5F-0841-A4C0-5E4DF4B34EB5}"/>
-    <hyperlink ref="C39" r:id="rId39" display="http://www.itec.net/" xr:uid="{E3BDC97E-BD9B-AB43-8836-3D0B1CBF2FE5}"/>
-    <hyperlink ref="C40" r:id="rId40" display="http://www.itrenew.com/" xr:uid="{9F58B492-6995-6840-BC86-456C3B2D9111}"/>
-    <hyperlink ref="C41" r:id="rId41" display="http://www.kbtmetal.com/" xr:uid="{F689A053-B838-3D4E-B6CF-F55C7466DC2D}"/>
-    <hyperlink ref="C42" r:id="rId42" display="http://www.ktcorpworldwide.com/" xr:uid="{A48DD05C-94C6-E146-8364-5203B8F135D0}"/>
-    <hyperlink ref="C43" r:id="rId43" display="http://www.magnakom.com/" xr:uid="{2BC9168A-6BAB-F847-8EC6-76550BBB584A}"/>
-    <hyperlink ref="C44" r:id="rId44" display="http://www.maywei.com/" xr:uid="{5D9FAADF-2C5B-5840-A530-FED0D62E7306}"/>
-    <hyperlink ref="C45" r:id="rId45" display="http://www.modernwastesolutions.com/" xr:uid="{118C1EE2-E664-8242-A750-90F035838EA0}"/>
-    <hyperlink ref="C46" r:id="rId46" display="http://www.onsiteelectronicsrecycling.com/" xr:uid="{956350C6-D8A9-4847-B4E3-09A87C03C91C}"/>
-    <hyperlink ref="C47" r:id="rId47" display="http://www.pcrecycle.us/" xr:uid="{7D0DC12C-5A67-EA47-9E4E-1DB2BD137477}"/>
-    <hyperlink ref="C48" r:id="rId48" display="http://www.pncalifornia.com/" xr:uid="{C6B52FC3-97E5-814B-961B-3025C650C242}"/>
-    <hyperlink ref="C49" r:id="rId49" display="http://www.poweron.com/" xr:uid="{EC50545F-4996-C04F-9BBE-6FC657D692EB}"/>
-    <hyperlink ref="C50" r:id="rId50" display="http://www.scrapdr.com/" xr:uid="{A27FC0D6-2034-C642-B22B-C4E8A936AAA8}"/>
-    <hyperlink ref="C51" r:id="rId51" display="http://www.scrapdr.com/" xr:uid="{AEA81366-1AE0-AD4C-B82E-63B9629F697E}"/>
-    <hyperlink ref="C52" r:id="rId52" display="http://www.scrapdr.com/" xr:uid="{1E9AFDB2-587D-6148-8C6F-0B41A3B0E6E0}"/>
-    <hyperlink ref="C53" r:id="rId53" display="http://www.sem-recycling.com/" xr:uid="{D8A9AB3D-5264-8D43-A602-6CBD7F579759}"/>
-    <hyperlink ref="C54" r:id="rId54" display="http://www.simsrecycling.com/" xr:uid="{AE16C417-7D55-8843-8056-46E3EDC8E3AE}"/>
-    <hyperlink ref="C55" r:id="rId55" display="http://www.smartwasteusa.com/" xr:uid="{C30D926C-E615-AE49-9325-0F3A33A7C447}"/>
-    <hyperlink ref="C56" r:id="rId56" display="http://www.starmicro.net/" xr:uid="{94C412E0-98E1-1345-B322-D085DD2F2F2B}"/>
-    <hyperlink ref="C57" r:id="rId57" display="http://www.surplusservice.com/" xr:uid="{CAEE41F0-1C22-0447-94FF-EA6D34698D76}"/>
-    <hyperlink ref="C58" r:id="rId58" display="http://www.t3rs.com/" xr:uid="{E7185B9A-A508-A34C-9A10-98B2800D426E}"/>
-    <hyperlink ref="C59" r:id="rId59" display="http://www.unicor.gov/" xr:uid="{531E507E-082E-7F4D-A929-504404101AEC}"/>
-    <hyperlink ref="C60" r:id="rId60" display="http://www.wsadistributing.com/" xr:uid="{69A16D74-E450-D845-A4BE-35C1ECF49D15}"/>
-    <hyperlink ref="C61" r:id="rId61" display="http://www.yourcellparts.com/" xr:uid="{CF5546A4-5FDD-A243-9B89-82ACEEEE631B}"/>
-    <hyperlink ref="C62" r:id="rId62" display="http://www.zarcrecycling.com/" xr:uid="{FFB377F4-7A10-8E4D-AE84-E35487A47B87}"/>
+    <hyperlink ref="A55" r:id="rId1" display="http://yourcellparts.com/" xr:uid="{9F849BF3-DE05-CC4E-81B1-1B21FC4E46C4}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{75A75059-497A-F143-AAFF-A093508E99D6}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{65B98482-9D82-804F-B5BF-022016D45F1D}"/>
+    <hyperlink ref="C6" r:id="rId4" display="http://www.alphasurplus.com/" xr:uid="{B0B2F90D-A467-8B49-BF7A-7DB723620AB6}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{29D66610-4B5B-9243-9C16-00307A6086C9}"/>
+    <hyperlink ref="C8" r:id="rId6" display="http://www.itadsolutions.com/" xr:uid="{C54DDF6E-4429-5646-8904-2380551E8415}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{86A7BA80-3A07-804B-BF02-7BBAABEFE6DB}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{7FF75020-3997-A14E-BA5B-4C58FA7476DF}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{A32E9E4B-38F5-0E44-9203-D683A18E907B}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{50DF8976-0DD0-3545-BBF5-4565C64C5A50}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{FC21AB7A-C6D3-FB41-9D01-1700F2C45E63}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{1088DF8D-7ADC-C540-8B65-24851D66B29B}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{B93E71B8-3F60-0C4F-8234-EE3F13E57BB8}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{CBE6D8F4-BABE-C943-BF12-282FE678F355}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{11D8A1BB-0931-5344-BB48-8B2010251A4C}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{5546CC67-2D02-0D4D-A980-F8718694655C}"/>
+    <hyperlink ref="C23" r:id="rId17" xr:uid="{5FF47BDB-3338-C447-8BC5-0C48A90A028B}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{84DF1A16-026B-054C-B73D-A3D40A8C546B}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{365CBD0B-6E0E-D440-9373-4C4616A45AA0}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{B89E660D-3D02-F34C-9658-C8AA2D951FFF}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{ACB6087F-2256-0045-A58F-B7D8C3B8F6F6}"/>
+    <hyperlink ref="C28" r:id="rId22" xr:uid="{D8FB5B37-1F91-8D46-AF55-70ABFFA3C7DB}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{234D0216-AF82-D947-BAE6-8A8C3764BAA8}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{FA46D9E1-E2B2-5A41-8D2E-9B270E5CD8F6}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{3D4B0AA1-14E4-9045-ACC9-35A92615F147}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{4993D37E-8071-044E-B480-1CA3F8837549}"/>
+    <hyperlink ref="C33" r:id="rId27" xr:uid="{C1157F5A-F9B6-D340-B0A4-A650F0516AAB}"/>
+    <hyperlink ref="C34" r:id="rId28" xr:uid="{58D81105-DE5F-0841-A4C0-5E4DF4B34EB5}"/>
+    <hyperlink ref="C35" r:id="rId29" xr:uid="{E3BDC97E-BD9B-AB43-8836-3D0B1CBF2FE5}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{F689A053-B838-3D4E-B6CF-F55C7466DC2D}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{A48DD05C-94C6-E146-8364-5203B8F135D0}"/>
+    <hyperlink ref="C38" r:id="rId32" xr:uid="{2BC9168A-6BAB-F847-8EC6-76550BBB584A}"/>
+    <hyperlink ref="C39" r:id="rId33" xr:uid="{5D9FAADF-2C5B-5840-A530-FED0D62E7306}"/>
+    <hyperlink ref="C40" r:id="rId34" xr:uid="{118C1EE2-E664-8242-A750-90F035838EA0}"/>
+    <hyperlink ref="C41" r:id="rId35" xr:uid="{956350C6-D8A9-4847-B4E3-09A87C03C91C}"/>
+    <hyperlink ref="C42" r:id="rId36" xr:uid="{7D0DC12C-5A67-EA47-9E4E-1DB2BD137477}"/>
+    <hyperlink ref="C43" r:id="rId37" xr:uid="{EC50545F-4996-C04F-9BBE-6FC657D692EB}"/>
+    <hyperlink ref="C44" r:id="rId38" xr:uid="{A27FC0D6-2034-C642-B22B-C4E8A936AAA8}"/>
+    <hyperlink ref="C45" r:id="rId39" xr:uid="{AEA81366-1AE0-AD4C-B82E-63B9629F697E}"/>
+    <hyperlink ref="C46" r:id="rId40" xr:uid="{1E9AFDB2-587D-6148-8C6F-0B41A3B0E6E0}"/>
+    <hyperlink ref="C47" r:id="rId41" xr:uid="{D8A9AB3D-5264-8D43-A602-6CBD7F579759}"/>
+    <hyperlink ref="C48" r:id="rId42" xr:uid="{AE16C417-7D55-8843-8056-46E3EDC8E3AE}"/>
+    <hyperlink ref="C49" r:id="rId43" xr:uid="{C30D926C-E615-AE49-9325-0F3A33A7C447}"/>
+    <hyperlink ref="C50" r:id="rId44" xr:uid="{94C412E0-98E1-1345-B322-D085DD2F2F2B}"/>
+    <hyperlink ref="C51" r:id="rId45" xr:uid="{CAEE41F0-1C22-0447-94FF-EA6D34698D76}"/>
+    <hyperlink ref="C52" r:id="rId46" xr:uid="{E7185B9A-A508-A34C-9A10-98B2800D426E}"/>
+    <hyperlink ref="C53" r:id="rId47" xr:uid="{531E507E-082E-7F4D-A929-504404101AEC}"/>
+    <hyperlink ref="C54" r:id="rId48" xr:uid="{69A16D74-E450-D845-A4BE-35C1ECF49D15}"/>
+    <hyperlink ref="C55" r:id="rId49" xr:uid="{CF5546A4-5FDD-A243-9B89-82ACEEEE631B}"/>
+    <hyperlink ref="C56" r:id="rId50" xr:uid="{FFB377F4-7A10-8E4D-AE84-E35487A47B87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C8F1C-8336-214A-AAE8-3B4760EBA755}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="82.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>